--- a/renter-cost-burden-size/data/renter-cost-burden-by-re-hhsize.xlsx
+++ b/renter-cost-burden-size/data/renter-cost-burden-by-re-hhsize.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Region</t>
   </si>
   <si>
-    <t xml:space="preserve">American Indian or Alaskan Native alone</t>
+    <t xml:space="preserve">American Indian or Alaskan Native</t>
   </si>
   <si>
     <t xml:space="preserve">detail</t>
@@ -94,46 +94,46 @@
     <t xml:space="preserve">single-person</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian alone</t>
+    <t xml:space="preserve">Asian</t>
   </si>
   <si>
     <t xml:space="preserve">good</t>
   </si>
   <si>
-    <t xml:space="preserve">Black or African American alone</t>
+    <t xml:space="preserve">Black or African American</t>
   </si>
   <si>
     <t xml:space="preserve">Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone</t>
+    <t xml:space="preserve">Native Hawaiian or Pacific Islander</t>
   </si>
   <si>
     <t xml:space="preserve">weak</t>
   </si>
   <si>
-    <t xml:space="preserve">Some Other Race alone</t>
+    <t xml:space="preserve">Some Other Race</t>
   </si>
   <si>
     <t xml:space="preserve">Two or More Races</t>
   </si>
   <si>
-    <t xml:space="preserve">White alone</t>
+    <t xml:space="preserve">White</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace PSRC</t>
+    <t xml:space="preserve">Multirace PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race PSRC</t>
+    <t xml:space="preserve">Single race PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race Harvard</t>
+    <t xml:space="preserve">Single race Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">Total People of color</t>
+    <t xml:space="preserve">People of color</t>
   </si>
   <si>
     <t xml:space="preserve">King</t>
@@ -154,31 +154,31 @@
     <t xml:space="preserve">multi-person</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian</t>
+    <t xml:space="preserve">MNAW</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian, white</t>
+    <t xml:space="preserve">Multirace incl. Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. white</t>
+    <t xml:space="preserve">Multirace incl. Asian, white</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not Asian or white</t>
+    <t xml:space="preserve">Multirace incl. white</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace Harvard</t>
+    <t xml:space="preserve">Multirace Harvard</t>
   </si>
   <si>
     <t xml:space="preserve">dichot</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not white</t>
+    <t xml:space="preserve">MNW</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple Races</t>
+    <t xml:space="preserve">Multirace</t>
   </si>
 </sst>
 </file>
@@ -5189,31 +5189,31 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>3153</v>
+        <v>5483</v>
       </c>
       <c r="G11" t="n">
-        <v>3691</v>
+        <v>7853</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.353594258158574</v>
+        <v>0.436927245198821</v>
       </c>
       <c r="J11" t="n">
-        <v>0.380947466198782</v>
+        <v>0.50006367804381</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>545.229784423503</v>
+        <v>752.167593238867</v>
       </c>
       <c r="M11" t="n">
-        <v>581.039289228792</v>
+        <v>1000.07104970409</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.0536227426762578</v>
+        <v>0.0533774429203454</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0522049288600991</v>
+        <v>0.0504674176398512</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -5241,31 +5241,31 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>4334</v>
+        <v>3153</v>
       </c>
       <c r="G12" t="n">
-        <v>4438</v>
+        <v>3691</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.260128443670848</v>
+        <v>0.353594258158574</v>
       </c>
       <c r="J12" t="n">
-        <v>0.262339658331856</v>
+        <v>0.380947466198782</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>613.225133410438</v>
+        <v>545.229784423503</v>
       </c>
       <c r="M12" t="n">
-        <v>610.823188888364</v>
+        <v>581.039289228792</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.0322483056966962</v>
+        <v>0.0536227426762578</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0316429545267754</v>
+        <v>0.0522049288600991</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -5293,31 +5293,31 @@
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>21519</v>
+        <v>4334</v>
       </c>
       <c r="G13" t="n">
-        <v>26621</v>
+        <v>4438</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>0.36541008660214</v>
+        <v>0.260128443670848</v>
       </c>
       <c r="J13" t="n">
-        <v>0.395504315916148</v>
+        <v>0.262339658331856</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>1609.80274891677</v>
+        <v>613.225133410438</v>
       </c>
       <c r="M13" t="n">
-        <v>1706.87557457698</v>
+        <v>610.823188888364</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.0212086846557214</v>
+        <v>0.0322483056966962</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0198634170705969</v>
+        <v>0.0316429545267754</v>
       </c>
       <c r="Q13"/>
       <c r="R13" t="s">
@@ -5345,31 +5345,31 @@
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
-        <v>5483</v>
+        <v>21519</v>
       </c>
       <c r="G14" t="n">
-        <v>7853</v>
+        <v>26621</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>0.436927245198821</v>
+        <v>0.36541008660214</v>
       </c>
       <c r="J14" t="n">
-        <v>0.50006367804381</v>
+        <v>0.395504315916148</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>752.167593238867</v>
+        <v>1609.80274891677</v>
       </c>
       <c r="M14" t="n">
-        <v>1000.07104970409</v>
+        <v>1706.87557457698</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.0533774429203454</v>
+        <v>0.0212086846557214</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0504674176398512</v>
+        <v>0.0198634170705969</v>
       </c>
       <c r="Q14"/>
       <c r="R14" t="s">
@@ -6255,31 +6255,31 @@
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
-        <v>2159</v>
+        <v>2993</v>
       </c>
       <c r="G29" t="n">
-        <v>2366</v>
+        <v>4257</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="n">
-        <v>0.379771328056288</v>
+        <v>0.438213762811127</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3890807432988</v>
+        <v>0.500235017626322</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>485.0618002005</v>
+        <v>580.26217892432</v>
       </c>
       <c r="M29" t="n">
-        <v>494.778018073509</v>
+        <v>787.94546993193</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>0.0690182615265532</v>
+        <v>0.0826090704172325</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0646434616168924</v>
+        <v>0.0763711303303097</v>
       </c>
       <c r="Q29"/>
       <c r="R29" t="s">
@@ -6307,31 +6307,31 @@
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>2918</v>
+        <v>2159</v>
       </c>
       <c r="G30" t="n">
-        <v>2950</v>
+        <v>2366</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="n">
-        <v>0.236160569763678</v>
+        <v>0.379771328056288</v>
       </c>
       <c r="J30" t="n">
-        <v>0.23609443777511</v>
+        <v>0.3890807432988</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>582.811451399593</v>
+        <v>485.0618002005</v>
       </c>
       <c r="M30" t="n">
-        <v>575.403976020326</v>
+        <v>494.778018073509</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.0399396814855242</v>
+        <v>0.0690182615265532</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0393353921429391</v>
+        <v>0.0646434616168924</v>
       </c>
       <c r="Q30"/>
       <c r="R30" t="s">
@@ -6359,31 +6359,31 @@
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
-        <v>10806</v>
+        <v>2918</v>
       </c>
       <c r="G31" t="n">
-        <v>12714</v>
+        <v>2950</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="n">
-        <v>0.342308667004562</v>
+        <v>0.236160569763678</v>
       </c>
       <c r="J31" t="n">
-        <v>0.366524446494465</v>
+        <v>0.23609443777511</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>1048.00295657801</v>
+        <v>582.811451399593</v>
       </c>
       <c r="M31" t="n">
-        <v>1171.47147853031</v>
+        <v>575.403976020326</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.0245797639119875</v>
+        <v>0.0399396814855242</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0249178534171349</v>
+        <v>0.0393353921429391</v>
       </c>
       <c r="Q31"/>
       <c r="R31" t="s">
@@ -6411,31 +6411,31 @@
       </c>
       <c r="E32"/>
       <c r="F32" t="n">
-        <v>2993</v>
+        <v>10806</v>
       </c>
       <c r="G32" t="n">
-        <v>4257</v>
+        <v>12714</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="n">
-        <v>0.438213762811127</v>
+        <v>0.342308667004562</v>
       </c>
       <c r="J32" t="n">
-        <v>0.500235017626322</v>
+        <v>0.366524446494465</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>580.26217892432</v>
+        <v>1048.00295657801</v>
       </c>
       <c r="M32" t="n">
-        <v>787.94546993193</v>
+        <v>1171.47147853031</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>0.0826090704172325</v>
+        <v>0.0245797639119875</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0763711303303097</v>
+        <v>0.0249178534171349</v>
       </c>
       <c r="Q32"/>
       <c r="R32" t="s">
@@ -7259,38 +7259,38 @@
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
-        <v>142</v>
+        <v>403</v>
       </c>
       <c r="G46" t="n">
-        <v>142</v>
+        <v>512</v>
       </c>
       <c r="H46"/>
       <c r="I46" t="n">
-        <v>0.439628482972136</v>
+        <v>0.484375</v>
       </c>
       <c r="J46" t="n">
-        <v>0.421364985163205</v>
+        <v>0.535564853556485</v>
       </c>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>101.500632411823</v>
+        <v>197.094410337407</v>
       </c>
       <c r="M46" t="n">
-        <v>101.500632411823</v>
+        <v>250.751370467342</v>
       </c>
       <c r="N46"/>
       <c r="O46" t="n">
-        <v>0.246517704586168</v>
+        <v>0.176365354836009</v>
       </c>
       <c r="P46" t="n">
-        <v>0.236245996889008</v>
+        <v>0.168396833888428</v>
       </c>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T46" t="s">
         <v>44</v>
@@ -7311,31 +7311,31 @@
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="G47" t="n">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="n">
-        <v>0.401060070671378</v>
+        <v>0.439628482972136</v>
       </c>
       <c r="J47" t="n">
-        <v>0.401060070671378</v>
+        <v>0.421364985163205</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>141.810545063652</v>
+        <v>101.500632411823</v>
       </c>
       <c r="M47" t="n">
-        <v>141.810545063652</v>
+        <v>101.500632411823</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.201726748263077</v>
+        <v>0.246517704586168</v>
       </c>
       <c r="P47" t="n">
-        <v>0.201726748263077</v>
+        <v>0.236245996889008</v>
       </c>
       <c r="Q47"/>
       <c r="R47" t="s">
@@ -7363,38 +7363,38 @@
       </c>
       <c r="E48"/>
       <c r="F48" t="n">
-        <v>1638</v>
+        <v>227</v>
       </c>
       <c r="G48" t="n">
-        <v>2185</v>
+        <v>227</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="n">
-        <v>0.414368833797116</v>
+        <v>0.401060070671378</v>
       </c>
       <c r="J48" t="n">
-        <v>0.465587044534413</v>
+        <v>0.401060070671378</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>431.131245939099</v>
+        <v>141.810545063652</v>
       </c>
       <c r="M48" t="n">
-        <v>475.666192954681</v>
+        <v>141.810545063652</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.07821942554942</v>
+        <v>0.201726748263077</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0728713035791795</v>
+        <v>0.201726748263077</v>
       </c>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S48" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T48" t="s">
         <v>44</v>
@@ -7415,38 +7415,38 @@
       </c>
       <c r="E49"/>
       <c r="F49" t="n">
-        <v>403</v>
+        <v>1638</v>
       </c>
       <c r="G49" t="n">
-        <v>512</v>
+        <v>2185</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="n">
-        <v>0.484375</v>
+        <v>0.414368833797116</v>
       </c>
       <c r="J49" t="n">
-        <v>0.535564853556485</v>
+        <v>0.465587044534413</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>197.094410337407</v>
+        <v>431.131245939099</v>
       </c>
       <c r="M49" t="n">
-        <v>250.751370467342</v>
+        <v>475.666192954681</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.176365354836009</v>
+        <v>0.07821942554942</v>
       </c>
       <c r="P49" t="n">
-        <v>0.168396833888428</v>
+        <v>0.0728713035791795</v>
       </c>
       <c r="Q49"/>
       <c r="R49" t="s">
         <v>23</v>
       </c>
       <c r="S49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T49" t="s">
         <v>44</v>
@@ -8325,38 +8325,38 @@
       </c>
       <c r="E64"/>
       <c r="F64" t="n">
-        <v>470</v>
+        <v>1325</v>
       </c>
       <c r="G64" t="n">
-        <v>789</v>
+        <v>2160</v>
       </c>
       <c r="H64"/>
       <c r="I64" t="n">
-        <v>0.260243632336656</v>
+        <v>0.40006038647343</v>
       </c>
       <c r="J64" t="n">
-        <v>0.374821852731591</v>
+        <v>0.495412844036697</v>
       </c>
       <c r="K64"/>
       <c r="L64" t="n">
-        <v>196.167888095886</v>
+        <v>333.901571602696</v>
       </c>
       <c r="M64" t="n">
-        <v>249.499921658304</v>
+        <v>486.556547208287</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>0.0988627203641892</v>
+        <v>0.0807015689477752</v>
       </c>
       <c r="P64" t="n">
-        <v>0.102529541402848</v>
+        <v>0.075231161349281</v>
       </c>
       <c r="Q64"/>
       <c r="R64" t="s">
         <v>23</v>
       </c>
       <c r="S64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T64" t="s">
         <v>44</v>
@@ -8377,31 +8377,31 @@
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>760</v>
+        <v>470</v>
       </c>
       <c r="G65" t="n">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="n">
-        <v>0.348943985307622</v>
+        <v>0.260243632336656</v>
       </c>
       <c r="J65" t="n">
-        <v>0.349615558570782</v>
+        <v>0.374821852731591</v>
       </c>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>282.886675934463</v>
+        <v>196.167888095886</v>
       </c>
       <c r="M65" t="n">
-        <v>279.885281171143</v>
+        <v>249.499921658304</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>0.115948190567395</v>
+        <v>0.0988627203641892</v>
       </c>
       <c r="P65" t="n">
-        <v>0.114142807059021</v>
+        <v>0.102529541402848</v>
       </c>
       <c r="Q65"/>
       <c r="R65" t="s">
@@ -8429,38 +8429,38 @@
       </c>
       <c r="E66"/>
       <c r="F66" t="n">
-        <v>5483</v>
+        <v>760</v>
       </c>
       <c r="G66" t="n">
-        <v>6865</v>
+        <v>773</v>
       </c>
       <c r="H66"/>
       <c r="I66" t="n">
-        <v>0.391670833630974</v>
+        <v>0.348943985307622</v>
       </c>
       <c r="J66" t="n">
-        <v>0.418725221103995</v>
+        <v>0.349615558570782</v>
       </c>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>815.880034807508</v>
+        <v>282.886675934463</v>
       </c>
       <c r="M66" t="n">
-        <v>822.197428846928</v>
+        <v>279.885281171143</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>0.0469727905362499</v>
+        <v>0.115948190567395</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0410504952763588</v>
+        <v>0.114142807059021</v>
       </c>
       <c r="Q66"/>
       <c r="R66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T66" t="s">
         <v>44</v>
@@ -8481,35 +8481,35 @@
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>1325</v>
+        <v>5483</v>
       </c>
       <c r="G67" t="n">
-        <v>2160</v>
+        <v>6865</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>0.40006038647343</v>
+        <v>0.391670833630974</v>
       </c>
       <c r="J67" t="n">
-        <v>0.495412844036697</v>
+        <v>0.418725221103995</v>
       </c>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>333.901571602696</v>
+        <v>815.880034807508</v>
       </c>
       <c r="M67" t="n">
-        <v>486.556547208287</v>
+        <v>822.197428846928</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>0.0807015689477752</v>
+        <v>0.0469727905362499</v>
       </c>
       <c r="P67" t="n">
-        <v>0.075231161349281</v>
+        <v>0.0410504952763588</v>
       </c>
       <c r="Q67"/>
       <c r="R67" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S67" t="s">
         <v>26</v>
@@ -9391,31 +9391,31 @@
       </c>
       <c r="E82"/>
       <c r="F82" t="n">
-        <v>382</v>
+        <v>762</v>
       </c>
       <c r="G82" t="n">
-        <v>394</v>
+        <v>924</v>
       </c>
       <c r="H82"/>
       <c r="I82" t="n">
-        <v>0.346328195829556</v>
+        <v>0.483809523809524</v>
       </c>
       <c r="J82" t="n">
-        <v>0.337907375643225</v>
+        <v>0.492012779552716</v>
       </c>
       <c r="K82"/>
       <c r="L82" t="n">
-        <v>179.438889231822</v>
+        <v>336.250433845445</v>
       </c>
       <c r="M82" t="n">
-        <v>182.179943808999</v>
+        <v>355.853843182141</v>
       </c>
       <c r="N82"/>
       <c r="O82" t="n">
-        <v>0.153630595701977</v>
+        <v>0.136717921031579</v>
       </c>
       <c r="P82" t="n">
-        <v>0.145951950902937</v>
+        <v>0.125898942635115</v>
       </c>
       <c r="Q82"/>
       <c r="R82" t="s">
@@ -9443,35 +9443,35 @@
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="G83" t="n">
-        <v>488</v>
+        <v>394</v>
       </c>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>0.274823830877643</v>
+        <v>0.346328195829556</v>
       </c>
       <c r="J83" t="n">
-        <v>0.296656534954407</v>
+        <v>0.337907375643225</v>
       </c>
       <c r="K83"/>
       <c r="L83" t="n">
-        <v>218.144305309009</v>
+        <v>179.438889231822</v>
       </c>
       <c r="M83" t="n">
-        <v>236.197312254501</v>
+        <v>182.179943808999</v>
       </c>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>0.112700529672534</v>
+        <v>0.153630595701977</v>
       </c>
       <c r="P83" t="n">
-        <v>0.11142215620972</v>
+        <v>0.145951950902937</v>
       </c>
       <c r="Q83"/>
       <c r="R83" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S83" t="s">
         <v>23</v>
@@ -9495,38 +9495,38 @@
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>3592</v>
+        <v>429</v>
       </c>
       <c r="G84" t="n">
-        <v>4857</v>
+        <v>488</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>0.383351120597652</v>
+        <v>0.274823830877643</v>
       </c>
       <c r="J84" t="n">
-        <v>0.421139339287263</v>
+        <v>0.296656534954407</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>624.080242221503</v>
+        <v>218.144305309009</v>
       </c>
       <c r="M84" t="n">
-        <v>738.182454857876</v>
+        <v>236.197312254501</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>0.0569512083500349</v>
+        <v>0.112700529672534</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0508432651880575</v>
+        <v>0.11142215620972</v>
       </c>
       <c r="Q84"/>
       <c r="R84" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S84" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T84" t="s">
         <v>44</v>
@@ -9547,38 +9547,38 @@
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>762</v>
+        <v>3592</v>
       </c>
       <c r="G85" t="n">
-        <v>924</v>
+        <v>4857</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>0.483809523809524</v>
+        <v>0.383351120597652</v>
       </c>
       <c r="J85" t="n">
-        <v>0.492012779552716</v>
+        <v>0.421139339287263</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="n">
-        <v>336.250433845445</v>
+        <v>624.080242221503</v>
       </c>
       <c r="M85" t="n">
-        <v>355.853843182141</v>
+        <v>738.182454857876</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>0.136717921031579</v>
+        <v>0.0569512083500349</v>
       </c>
       <c r="P85" t="n">
-        <v>0.125898942635115</v>
+        <v>0.0508432651880575</v>
       </c>
       <c r="Q85"/>
       <c r="R85" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S85" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T85" t="s">
         <v>44</v>
@@ -14570,38 +14570,38 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>25853</v>
+        <v>8636</v>
       </c>
       <c r="G11" t="n">
-        <v>31059</v>
+        <v>11544</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.3421926910299</v>
+        <v>0.402310630764931</v>
       </c>
       <c r="J11" t="n">
-        <v>0.36875786574217</v>
+        <v>0.454613476154846</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>1692.24392955219</v>
+        <v>916.113999002717</v>
       </c>
       <c r="M11" t="n">
-        <v>1774.60084754608</v>
+        <v>1073.18399320259</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.0191010045154718</v>
+        <v>0.0405277421074703</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0181708255871558</v>
+        <v>0.0363332414221684</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -14622,38 +14622,38 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>8636</v>
+        <v>25853</v>
       </c>
       <c r="G12" t="n">
-        <v>11544</v>
+        <v>31059</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.402310630764931</v>
+        <v>0.3421926910299</v>
       </c>
       <c r="J12" t="n">
-        <v>0.454613476154846</v>
+        <v>0.36875786574217</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>916.113999002717</v>
+        <v>1692.24392955219</v>
       </c>
       <c r="M12" t="n">
-        <v>1073.18399320259</v>
+        <v>1774.60084754608</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.0405277421074703</v>
+        <v>0.0191010045154718</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0363332414221684</v>
+        <v>0.0181708255871558</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -15532,38 +15532,38 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
-        <v>13724</v>
+        <v>5152</v>
       </c>
       <c r="G27" t="n">
-        <v>15664</v>
+        <v>6623</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="n">
-        <v>0.31244877515709</v>
+        <v>0.411666000799041</v>
       </c>
       <c r="J27" t="n">
-        <v>0.331983977279953</v>
+        <v>0.453909944486327</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>1215.10277562178</v>
+        <v>745.396949714546</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.67580120593</v>
+        <v>863.337312083174</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>0.02269735392862</v>
+        <v>0.0566472297863577</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0226763127814739</v>
+        <v>0.049883649351014</v>
       </c>
       <c r="Q27"/>
       <c r="R27" t="s">
@@ -15584,38 +15584,38 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
-        <v>5152</v>
+        <v>13724</v>
       </c>
       <c r="G28" t="n">
-        <v>6623</v>
+        <v>15664</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>0.411666000799041</v>
+        <v>0.31244877515709</v>
       </c>
       <c r="J28" t="n">
-        <v>0.453909944486327</v>
+        <v>0.331983977279953</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>745.396949714546</v>
+        <v>1215.10277562178</v>
       </c>
       <c r="M28" t="n">
-        <v>863.337312083174</v>
+        <v>1302.67580120593</v>
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>0.0566472297863577</v>
+        <v>0.02269735392862</v>
       </c>
       <c r="P28" t="n">
-        <v>0.049883649351014</v>
+        <v>0.0226763127814739</v>
       </c>
       <c r="Q28"/>
       <c r="R28" t="s">
@@ -16432,45 +16432,45 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="n">
-        <v>1865</v>
+        <v>545</v>
       </c>
       <c r="G42" t="n">
-        <v>2412</v>
+        <v>654</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="n">
-        <v>0.412701925204691</v>
+        <v>0.471861471861472</v>
       </c>
       <c r="J42" t="n">
-        <v>0.458642327438677</v>
+        <v>0.505800464037123</v>
       </c>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>427.546702815903</v>
+        <v>229.284617863366</v>
       </c>
       <c r="M42" t="n">
-        <v>474.893152226109</v>
+        <v>273.188146880955</v>
       </c>
       <c r="N42"/>
       <c r="O42" t="n">
-        <v>0.0704390139455296</v>
+        <v>0.148589319380663</v>
       </c>
       <c r="P42" t="n">
-        <v>0.067966684804476</v>
+        <v>0.141192017970853</v>
       </c>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T42" t="s">
         <v>44</v>
@@ -16484,45 +16484,45 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="n">
-        <v>545</v>
+        <v>1865</v>
       </c>
       <c r="G43" t="n">
-        <v>654</v>
+        <v>2412</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>0.471861471861472</v>
+        <v>0.412701925204691</v>
       </c>
       <c r="J43" t="n">
-        <v>0.505800464037123</v>
+        <v>0.458642327438677</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>229.284617863366</v>
+        <v>427.546702815903</v>
       </c>
       <c r="M43" t="n">
-        <v>273.188146880955</v>
+        <v>474.893152226109</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.148589319380663</v>
+        <v>0.0704390139455296</v>
       </c>
       <c r="P43" t="n">
-        <v>0.141192017970853</v>
+        <v>0.067966684804476</v>
       </c>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T43" t="s">
         <v>44</v>
@@ -17394,38 +17394,38 @@
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
         <v>50</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="n">
-        <v>6243</v>
+        <v>1795</v>
       </c>
       <c r="G58" t="n">
-        <v>7638</v>
+        <v>2949</v>
       </c>
       <c r="H58"/>
       <c r="I58" t="n">
-        <v>0.385918279038141</v>
+        <v>0.350722938647909</v>
       </c>
       <c r="J58" t="n">
-        <v>0.410512737826508</v>
+        <v>0.45614849187935</v>
       </c>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>857.234974866139</v>
+        <v>402.914702764431</v>
       </c>
       <c r="M58" t="n">
-        <v>880.290745284619</v>
+        <v>574.793813498588</v>
       </c>
       <c r="N58"/>
       <c r="O58" t="n">
-        <v>0.045076723775804</v>
+        <v>0.0630107259905209</v>
       </c>
       <c r="P58" t="n">
-        <v>0.039357133198447</v>
+        <v>0.0592242860477775</v>
       </c>
       <c r="Q58"/>
       <c r="R58" t="s">
@@ -17446,38 +17446,38 @@
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
         <v>50</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>1795</v>
+        <v>6243</v>
       </c>
       <c r="G59" t="n">
-        <v>2949</v>
+        <v>7638</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="n">
-        <v>0.350722938647909</v>
+        <v>0.385918279038141</v>
       </c>
       <c r="J59" t="n">
-        <v>0.45614849187935</v>
+        <v>0.410512737826508</v>
       </c>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>402.914702764431</v>
+        <v>857.234974866139</v>
       </c>
       <c r="M59" t="n">
-        <v>574.793813498588</v>
+        <v>880.290745284619</v>
       </c>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>0.0630107259905209</v>
+        <v>0.045076723775804</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0592242860477775</v>
+        <v>0.039357133198447</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
@@ -18356,45 +18356,45 @@
         <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
         <v>50</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
-        <v>4021</v>
+        <v>1144</v>
       </c>
       <c r="G74" t="n">
-        <v>5345</v>
+        <v>1318</v>
       </c>
       <c r="H74"/>
       <c r="I74" t="n">
-        <v>0.367852895435001</v>
+        <v>0.427184466019417</v>
       </c>
       <c r="J74" t="n">
-        <v>0.405600242828957</v>
+        <v>0.432982917214192</v>
       </c>
       <c r="K74"/>
       <c r="L74" t="n">
-        <v>647.714232762026</v>
+        <v>370.017876720166</v>
       </c>
       <c r="M74" t="n">
-        <v>733.138409712825</v>
+        <v>396.204490842482</v>
       </c>
       <c r="N74"/>
       <c r="O74" t="n">
-        <v>0.0514076602844163</v>
+        <v>0.0996559824386602</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0456495375361428</v>
+        <v>0.0931210038164862</v>
       </c>
       <c r="Q74"/>
       <c r="R74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T74" t="s">
         <v>44</v>
@@ -18408,45 +18408,45 @@
         <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D75" t="s">
         <v>50</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>1144</v>
+        <v>4021</v>
       </c>
       <c r="G75" t="n">
-        <v>1318</v>
+        <v>5345</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>0.427184466019417</v>
+        <v>0.367852895435001</v>
       </c>
       <c r="J75" t="n">
-        <v>0.432982917214192</v>
+        <v>0.405600242828957</v>
       </c>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>370.017876720166</v>
+        <v>647.714232762026</v>
       </c>
       <c r="M75" t="n">
-        <v>396.204490842482</v>
+        <v>733.138409712825</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>0.0996559824386602</v>
+        <v>0.0514076602844163</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0931210038164862</v>
+        <v>0.0456495375361428</v>
       </c>
       <c r="Q75"/>
       <c r="R75" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S75" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T75" t="s">
         <v>44</v>
